--- a/data/trans_orig/IP1019-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0105C50-D853-4291-AAE8-103BCED3D8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31DA78A0-8748-4CAD-BCDA-E301C255E99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A96DB6A3-50C1-45B0-9868-6DA985B507D7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{499204AA-EFB7-4E4B-8159-7927D1A95063}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,39 @@
     <t>0,89%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,39 +172,6 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -223,6 +223,12 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
@@ -235,12 +241,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -262,6 +262,12 @@
     <t>0,59%</t>
   </si>
   <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
@@ -272,12 +278,6 @@
   </si>
   <si>
     <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DF1B5-AD61-4604-B06E-BCDF02C913DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EAF91A-650A-4AE9-AE58-D95AABCE9855}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -942,10 +942,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -957,34 +957,34 @@
         <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>204502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>816</v>
+        <v>633</v>
       </c>
       <c r="N7" s="7">
-        <v>547101</v>
+        <v>422543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1005,37 +1005,37 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1044,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1059,10 +1059,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1074,10 +1074,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1091,55 +1091,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D10" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>204502</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>633</v>
+        <v>816</v>
       </c>
       <c r="N10" s="7">
-        <v>422543</v>
+        <v>547101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1160,34 +1160,34 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1199,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1214,10 +1214,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1229,10 +1229,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1415,7 +1415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910AF1C2-269D-4905-A9EB-B6EECBAC0CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A368B68B-2FB6-4BE9-802F-D1432F219734}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1688,46 +1688,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>319</v>
+      </c>
+      <c r="I7" s="7">
+        <v>228178</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7">
+        <v>651</v>
+      </c>
+      <c r="N7" s="7">
+        <v>468278</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <v>362</v>
-      </c>
-      <c r="I7" s="7">
-        <v>254202</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>760</v>
-      </c>
-      <c r="N7" s="7">
-        <v>524556</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -1751,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1805,10 +1805,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1820,10 +1820,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1837,52 +1837,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N10" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -1906,7 +1906,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1960,10 +1960,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1975,10 +1975,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2161,7 +2161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608D9F66-CBA8-434E-A11E-88407D190654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C76C26-67BA-4127-8823-CF2126593590}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2434,46 +2434,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>360</v>
+      </c>
+      <c r="I7" s="7">
+        <v>235333</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7">
+        <v>723</v>
+      </c>
+      <c r="N7" s="7">
+        <v>485385</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <v>375</v>
-      </c>
-      <c r="I7" s="7">
-        <v>267770</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>756</v>
-      </c>
-      <c r="N7" s="7">
-        <v>549399</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2497,7 +2497,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2551,10 +2551,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2566,10 +2566,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2583,52 +2583,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N10" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2652,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2706,10 +2706,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2721,10 +2721,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/IP1019-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31DA78A0-8748-4CAD-BCDA-E301C255E99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4E0596-9E0C-4B9A-B953-65129E7C853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{499204AA-EFB7-4E4B-8159-7927D1A95063}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8B6208-F872-4D94-A654-910F05EE6593}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="106">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,217 +67,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
 </sst>
 </file>
@@ -288,7 +366,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -384,39 +462,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -468,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -579,13 +657,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -594,6 +665,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -658,19 +736,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EAF91A-650A-4AE9-AE58-D95AABCE9855}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384210E7-A421-4773-868E-50EB32B7A849}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -787,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>222488</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -802,85 +900,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>653</v>
-      </c>
-      <c r="N4" s="7">
-        <v>432684</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>182</v>
+      </c>
+      <c r="D5" s="7">
+        <v>121380</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>673</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>162</v>
+      </c>
+      <c r="I5" s="7">
+        <v>106171</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>344</v>
+      </c>
+      <c r="N5" s="7">
+        <v>227551</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>673</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -889,153 +987,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>218041</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>720</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1393</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <v>303</v>
-      </c>
-      <c r="I7" s="7">
-        <v>204502</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>633</v>
-      </c>
-      <c r="N7" s="7">
-        <v>422543</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>253083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>378</v>
+      </c>
+      <c r="I8" s="7">
+        <v>252485</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>759</v>
+      </c>
+      <c r="N8" s="7">
+        <v>505568</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>720</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>720</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1044,153 +1142,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281498</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>547101</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>269063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1199,153 +1297,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>722027</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>680301</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
-        <v>2102</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1402328</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>673</v>
+        <v>206049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>720</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>1393</v>
+        <v>400146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,55 +1452,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>673</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>720</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1393</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1085</v>
+      </c>
+      <c r="D17" s="7">
+        <v>722027</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I17" s="7">
+        <v>680301</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2102</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1402328</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1415,8 +1674,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A368B68B-2FB6-4BE9-802F-D1432F219734}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5B650E-2F52-4DF0-9744-ADD9321CC9EF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1432,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1533,100 +1792,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,153 +1894,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>228178</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>468278</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>234476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>501576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,153 +2049,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>270354</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>524556</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>313405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,153 +2204,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>748142</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>706928</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1455070</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>177957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>349294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,55 +2359,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N17" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1066</v>
+      </c>
+      <c r="D18" s="7">
+        <v>748142</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2084</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1455070</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2161,8 +2581,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C76C26-67BA-4127-8823-CF2126593590}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003B43BB-CECE-49B3-AC8C-090F3769C3D8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2178,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2279,97 +2699,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>414431</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2381,153 +2801,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>485385</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>468578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,153 +2956,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281629</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>549399</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,153 +3111,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>744844</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1449215</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,55 +3266,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N17" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D18" s="7">
+        <v>744844</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2126</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1449215</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1019-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4E0596-9E0C-4B9A-B953-65129E7C853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{886F215D-73EC-4190-990A-3FB2B2D3289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8B6208-F872-4D94-A654-910F05EE6593}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{758CC364-C03E-4736-871B-F39E0207EDB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="104">
   <si>
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,31 +112,31 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -184,37 +184,37 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,36%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -301,7 +301,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>Menores según si padecen falta de un miembro en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -331,13 +331,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -767,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384210E7-A421-4773-868E-50EB32B7A849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B731CD-06DD-4FA3-A0C7-40C351696714}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1674,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5B650E-2F52-4DF0-9744-ADD9321CC9EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9284C-EFFA-410C-B97A-B7192482E6E8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2581,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003B43BB-CECE-49B3-AC8C-090F3769C3D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDCD87D-CA74-46E2-A590-0F2768DE1C78}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3051,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3078,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3099,7 +3093,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3176,37 +3170,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3218,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3239,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3254,7 +3248,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP1019-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1019-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886F215D-73EC-4190-990A-3FB2B2D3289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9B566A-BDC8-434C-8729-D6AF25E01CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{758CC364-C03E-4736-871B-F39E0207EDB8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{09079C17-BBB9-4494-9EDA-F3ED20662D21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si padecen falta de un miembro en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,259 +94,259 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen falta de un miembro en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>99,22%</t>
+  </si>
+  <si>
     <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B731CD-06DD-4FA3-A0C7-40C351696714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911394DA-4F61-42A4-8156-99FC11F06FDA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -930,10 +930,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -945,10 +945,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -981,25 +981,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1070,7 +1070,7 @@
         <v>1393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
@@ -1085,10 +1085,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>253083</v>
+        <v>252485</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
@@ -1100,10 +1100,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I8" s="7">
-        <v>252485</v>
+        <v>253083</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>30</v>
@@ -1121,7 +1121,7 @@
         <v>505568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
@@ -1136,25 +1136,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1240,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>141515</v>
+        <v>127548</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1255,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>127548</v>
+        <v>141515</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1291,25 +1291,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1395,10 +1395,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>206049</v>
+        <v>194097</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1410,10 +1410,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I14" s="7">
-        <v>194097</v>
+        <v>206049</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1446,25 +1446,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>47</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>49</v>
@@ -1541,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,31 +1550,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="7">
+        <v>680301</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1085</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>722027</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>680301</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1586,10 +1586,10 @@
         <v>1402328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1601,25 +1601,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9284C-EFFA-410C-B97A-B7192482E6E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0002BB5C-6207-4A6E-B413-4AD460F68308}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1685,7 +1685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1798,37 +1798,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,31 +1837,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1876,7 +1876,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1888,25 +1888,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,31 +1992,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>337</v>
+      </c>
+      <c r="D8" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>267101</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>337</v>
-      </c>
-      <c r="I8" s="7">
-        <v>234476</v>
-      </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2043,25 +2043,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2108,37 +2108,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,31 +2147,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154834</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2186,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2198,25 +2198,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2263,37 +2263,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,31 +2302,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>262</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177957</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2341,7 +2341,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2353,25 +2353,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2418,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,31 +2457,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1066</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>748142</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706928</v>
-      </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2496,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2508,25 +2508,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDCD87D-CA74-46E2-A590-0F2768DE1C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8312CD-D0AD-445B-8181-9BCFC36C9368}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2592,7 +2592,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2705,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2744,31 +2744,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2795,25 +2795,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,31 +2899,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>258061</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>210517</v>
-      </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2938,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2950,25 +2950,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3015,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,31 +3054,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>263</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3093,7 +3093,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3105,25 +3105,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3209,10 +3209,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>174048</v>
+        <v>173301</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -3224,10 +3224,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>173301</v>
+        <v>174048</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3260,25 +3260,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3325,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,31 +3364,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1065</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>744844</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3403,7 +3403,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3415,25 +3415,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
